--- a/NL/CHN.xlsx
+++ b/NL/CHN.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11874" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11881" uniqueCount="1651">
   <si>
     <t>Beijing.Guoan</t>
   </si>
@@ -93542,6 +93542,23 @@
         <v>1273</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>953</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -93677,6 +93694,20 @@
       </c>
       <c r="D9" t="s">
         <v>1273</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>745</v>
+      </c>
+      <c r="D10" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/NL/CHN.xlsx
+++ b/NL/CHN.xlsx
@@ -93553,10 +93553,10 @@
         <v>953</v>
       </c>
       <c r="D10" t="s">
-        <v>1094</v>
+        <v>951</v>
       </c>
       <c r="E10" t="s">
-        <v>1273</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -93704,10 +93704,10 @@
         <v>2022.0</v>
       </c>
       <c r="C10" t="s">
-        <v>745</v>
+        <v>1361</v>
       </c>
       <c r="D10" t="s">
-        <v>745</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/NL/CHN.xlsx
+++ b/NL/CHN.xlsx
@@ -93553,10 +93553,10 @@
         <v>953</v>
       </c>
       <c r="D10" t="s">
-        <v>951</v>
+        <v>1317</v>
       </c>
       <c r="E10" t="s">
-        <v>1086</v>
+        <v>1621</v>
       </c>
     </row>
   </sheetData>
@@ -93704,10 +93704,10 @@
         <v>2022.0</v>
       </c>
       <c r="C10" t="s">
-        <v>1361</v>
+        <v>1251</v>
       </c>
       <c r="D10" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
